--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -699,6 +699,9 @@
       <c r="A31" t="str">
         <v>8</v>
       </c>
+      <c r="C31" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -702,6 +702,9 @@
       <c r="C31" t="str">
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
+      <c r="F31" t="str">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -763,7 +766,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020202627135015131514207562536101034103520142083020850</v>
+        <v>0202026271350151315142075625361010341035201420830208540</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -706,9 +706,181 @@
         <v>40</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F34" t="str">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>9</v>
+      </c>
+      <c r="C35" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>10</v>
+      </c>
+      <c r="C40" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>11</v>
+      </c>
+      <c r="C41" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>12</v>
+      </c>
+      <c r="C44" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -766,7 +938,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202026271350151315142075625361010341035201420830208540</v>
+        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.50</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -877,6 +877,9 @@
       <c r="C51" t="str">
         <v>614_康乃馨绿_green_undefined_20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -938,7 +941,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.50</v>
+        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,9 +881,176 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2</v>
+      </c>
+      <c r="C52" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>582_腊梅蓝_wax blue_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>354_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F65" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F66" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>4</v>
+      </c>
+      <c r="C68" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">507_风铃花深紫色_Canterbury Bells
+deep purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -941,7 +1108,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.510</v>
+        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.5101.514107105102010103010102025102010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -1044,8 +1044,8 @@
     </row>
     <row r="71" xml:space="preserve">
       <c r="C71" t="str" xml:space="preserve">
-        <v xml:space="preserve">507_风铃花深紫色_Canterbury Bells
-deep purple_undefined_1bunch</v>
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -1047,6 +1047,9 @@
         <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
 light purple_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1108,7 +1111,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.5101.514107105102010103010102025102010100</v>
+        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.5101.514107105102010103010102025102010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1048,12 +1048,47 @@
 light purple_undefined_1bunch</v>
       </c>
       <c r="F71" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F72" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>5</v>
+      </c>
+      <c r="C73" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L75"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1111,7 +1146,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.5101.514107105102010103010102025102010101</v>
+        <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.5101.51410710510201010301010202510201010108121010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-11-7.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-7.xlsx
@@ -1148,6 +1148,9 @@
       <c r="G2" t="str">
         <v>0202026271350151315142075625361010341035201420830208540445595235361550351691515258101068.5101.51410710510201010301010202510201010108121010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
